--- a/data/trans_dic/P43B_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P43B_R-Clase-trans_dic.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5465062007554594</v>
+        <v>0.5520405894131393</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6198003977264128</v>
+        <v>0.6158083724192345</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5016153098211295</v>
+        <v>0.5050947035379022</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7265473374053572</v>
+        <v>0.7241017690072715</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7666253131163613</v>
+        <v>0.7640682427709137</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6121655333897185</v>
+        <v>0.6115294279801549</v>
       </c>
     </row>
     <row r="7">
@@ -645,7 +645,7 @@
         <v>0.7290340060310956</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6491089145170346</v>
+        <v>0.6491089145170347</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5545048564905219</v>
+        <v>0.5421325547915953</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6542847290711757</v>
+        <v>0.6549148258659271</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5867841252528224</v>
+        <v>0.5908623826426513</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7429083406866742</v>
+        <v>0.7301255813439741</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8008391606975748</v>
+        <v>0.7960174906556063</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7025690387955728</v>
+        <v>0.7079295135968857</v>
       </c>
     </row>
     <row r="10">
@@ -700,7 +700,7 @@
         <v>0.8566159128110737</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8469500690096047</v>
+        <v>0.8469500690096049</v>
       </c>
     </row>
     <row r="11">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7529311656518579</v>
+        <v>0.7579685296578764</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7583503900313703</v>
+        <v>0.7713944730308636</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7763656617215204</v>
+        <v>0.7747098548684107</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8943285867830667</v>
+        <v>0.9006063641184773</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9156701950556527</v>
+        <v>0.9145670427851893</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9060273463246583</v>
+        <v>0.8995298431111062</v>
       </c>
     </row>
     <row r="13">
@@ -755,7 +755,7 @@
         <v>0.8997094326322276</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8633062250965101</v>
+        <v>0.8633062250965098</v>
       </c>
     </row>
     <row r="14">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8084137620815255</v>
+        <v>0.8067276387296263</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8590797937696897</v>
+        <v>0.8614252170372764</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8271249665933436</v>
+        <v>0.8248398818204482</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8974374650936287</v>
+        <v>0.8983642395294819</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9300747358553069</v>
+        <v>0.9328548628519654</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8944344488710584</v>
+        <v>0.8935411030746232</v>
       </c>
     </row>
     <row r="16">
@@ -810,7 +810,7 @@
         <v>0.9524934499755353</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.936686384989432</v>
+        <v>0.9366863849894322</v>
       </c>
     </row>
     <row r="17">
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8830233092236129</v>
+        <v>0.8810344018052422</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9240526539924306</v>
+        <v>0.9235253422171791</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9085527841975248</v>
+        <v>0.9106379340392569</v>
       </c>
     </row>
     <row r="18">
@@ -838,13 +838,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9428861591286806</v>
+        <v>0.9418593951465729</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9699948262447637</v>
+        <v>0.9724349799627292</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9568435469102401</v>
+        <v>0.9557193526835771</v>
       </c>
     </row>
     <row r="19">
@@ -865,7 +865,7 @@
         <v>0.9116079132339451</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9162682308394375</v>
+        <v>0.9162682308394376</v>
       </c>
     </row>
     <row r="20">
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8898458571369332</v>
+        <v>0.8932058362198295</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8830633538364526</v>
+        <v>0.8811317285328418</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8848046159374368</v>
+        <v>0.8869252312779476</v>
       </c>
     </row>
     <row r="21">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.940133248747376</v>
+        <v>0.9426430900999755</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9343220303479829</v>
+        <v>0.9356847133187297</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9378787782261466</v>
+        <v>0.9391640112486279</v>
       </c>
     </row>
     <row r="22">
@@ -920,7 +920,7 @@
         <v>0.8763733210964834</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.8192716854856098</v>
+        <v>0.8192716854856097</v>
       </c>
     </row>
     <row r="23">
@@ -931,13 +931,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8390879018932654</v>
+        <v>0.8371883939347393</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8601458451534146</v>
+        <v>0.8567010478638286</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8008912917781276</v>
+        <v>0.8018364486663615</v>
       </c>
     </row>
     <row r="24">
@@ -948,13 +948,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8753556213985723</v>
+        <v>0.8736785801179946</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8929857485311702</v>
+        <v>0.8917899084021607</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8341442933818765</v>
+        <v>0.8345848238586218</v>
       </c>
     </row>
     <row r="25">
@@ -1091,13 +1091,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>72899</v>
+        <v>73637</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>102141</v>
+        <v>101483</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>104952</v>
+        <v>105680</v>
       </c>
     </row>
     <row r="7">
@@ -1108,13 +1108,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>96915</v>
+        <v>96589</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>126337</v>
+        <v>125915</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>128082</v>
+        <v>127949</v>
       </c>
     </row>
     <row r="8">
@@ -1163,13 +1163,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>69621</v>
+        <v>68067</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>111720</v>
+        <v>111828</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>108066</v>
+        <v>108817</v>
       </c>
     </row>
     <row r="11">
@@ -1180,13 +1180,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>93276</v>
+        <v>91671</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>136745</v>
+        <v>135922</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>129389</v>
+        <v>130377</v>
       </c>
     </row>
     <row r="12">
@@ -1235,13 +1235,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>100477</v>
+        <v>101149</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>67207</v>
+        <v>68363</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>63678</v>
+        <v>63542</v>
       </c>
     </row>
     <row r="15">
@@ -1252,13 +1252,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>119346</v>
+        <v>120184</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>81149</v>
+        <v>81051</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>74312</v>
+        <v>73779</v>
       </c>
     </row>
     <row r="16">
@@ -1307,13 +1307,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>238818</v>
+        <v>238320</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>274800</v>
+        <v>275550</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>248770</v>
+        <v>248083</v>
       </c>
     </row>
     <row r="19">
@@ -1324,13 +1324,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>265117</v>
+        <v>265391</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>297510</v>
+        <v>298399</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>269015</v>
+        <v>268746</v>
       </c>
     </row>
     <row r="20">
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>342393</v>
+        <v>341622</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>367723</v>
+        <v>367513</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>317742</v>
+        <v>318471</v>
       </c>
     </row>
     <row r="23">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>365605</v>
+        <v>365207</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>386006</v>
+        <v>386977</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>334630</v>
+        <v>334237</v>
       </c>
     </row>
     <row r="24">
@@ -1451,13 +1451,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>495625</v>
+        <v>497496</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>479779</v>
+        <v>478729</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>271869</v>
+        <v>272521</v>
       </c>
     </row>
     <row r="27">
@@ -1468,13 +1468,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>523634</v>
+        <v>525031</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>507628</v>
+        <v>508369</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>288177</v>
+        <v>288572</v>
       </c>
     </row>
     <row r="28">
@@ -1523,13 +1523,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1369845</v>
+        <v>1366744</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1449609</v>
+        <v>1443803</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1147811</v>
+        <v>1149166</v>
       </c>
     </row>
     <row r="31">
@@ -1540,13 +1540,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1429053</v>
+        <v>1426315</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1504954</v>
+        <v>1502939</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1195468</v>
+        <v>1196099</v>
       </c>
     </row>
     <row r="32">
